--- a/Output_testing/R1_201907/Country/HKD/MN/CHINA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/CHINA_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>760742.330902</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>39.14352996139599</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>857985.430856</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>40.74336469736857</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>996393.516344</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>43.56193971413916</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>528060.841183</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>44.19347903028384</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-5.582506439000712</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>306242.178066</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>15.75750340901415</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>303051.178314</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>14.39106567077232</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>275389.626789</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>12.03992812408061</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>128366.683205</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>10.74302406082272</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-6.922661467974334</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>112553.43467</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>5.791367935368283</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>125621.514855</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>5.965419702368103</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>135075.17579</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>5.905434517710431</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>67789.516036</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>5.673313227882087</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-9.996955532946195</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>98495.998226</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>5.068051166635692</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>107994.448763</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>5.128358889325566</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>111927.647493</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>4.893433520448706</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>53941.096186</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>4.514337207481725</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-12.10813552224331</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>51753.215258</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>2.662929943241276</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>56302.658476</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>2.673658159242175</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>73472.358437</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>3.212183134864184</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>35802.656781</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>2.996328904326471</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-8.621969922458984</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>55836.122811</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2.873013446733149</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>61857.46745</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>2.937440736093276</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>71752.855895</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>3.137007147822683</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>34791.693907</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>2.911721292687585</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-10.25018679588631</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>36690.496377</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>1.887886983400433</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>39380.97764</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.870094148946837</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>40323.346052</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>1.762921115981199</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>19732.925452</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>1.651451043435544</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-15.09132591501404</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>28965.844442</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>1.490419756750231</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>30328.833842</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1.4402327750923</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>34444.852598</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.50591565252463</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>18029.321598</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.508876219994757</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-7.952417709798176</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>36349.704691</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1.870351756254969</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>33262.604617</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.579549467807061</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>32780.377206</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.433145431228912</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>16540.90291</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.384310270493466</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-13.52121412723332</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>12610.150166</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.6488475411316511</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>13121.997528</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.6231275166384536</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>17900.517233</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.782603700009063</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>16024.919952</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.3411275910445</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>30.36564384058957</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>443229.423727</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>22.80609810007418</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>476921.498597</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>22.64768823634535</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>497842.639859</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>21.76548794119042</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>275803.513404</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>23.08203115154731</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-3.856277619056303</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,433 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>2533.847532</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>13.64977896974911</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>2799.867766</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>16.21414754293081</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>3160.084815</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>15.43359736513883</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>1711.189502</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>15.40530615709022</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-7.924073818022059</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>POLYMERS OF STYRENE, IN PRIMARY FORMS</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>2071.290541</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>11.1579949897246</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>2182.009794</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>12.63610702250431</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>2794.829621</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>13.64972068785361</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>1458.347857</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>13.12905157164845</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-8.18619838627319</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>132.95032</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>0.7162003471159977</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>134.600306</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>0.779475819290401</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>1369.064752</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>6.686400962681642</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>1248.207138</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>11.2372201242942</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>216.9268378984836</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>619.5452739999999</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>3.337476286577391</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>1052.021663</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>6.092300025515359</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>1352.471156</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>6.605359188648189</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>535.047882</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>4.816869447410087</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>98.12081927498772</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>PULP AND WASTE PAPER</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>1084.132737</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>5.84019837304052</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>1215.929073</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>7.04149447012173</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>1240.539036</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>6.058691813106117</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>404.656484</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>3.642996300050748</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-37.84465353445464</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>544.454566</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>2.932964352083469</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>556.235261</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>3.221180907168109</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>691.119815</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>3.375372997948864</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>391.298489</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>3.522738431252836</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-5.87964955815472</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>501.840347</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>2.703402524478412</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>446.937121</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>2.58823095515673</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>497.550556</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>2.429996471504502</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>387.485234</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>3.488408884080301</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>38.98719817071385</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>428.387817</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>2.307715417576012</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>507.884999</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>2.941182583201776</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>624.533003</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>3.050168420730517</v>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v>354.314922</v>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>3.189786895639535</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-0.6436915594885684</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>ESSENTIAL OILS, PERFUME AND FLAVOUR MATERIALS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>507.223099</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>2.73239928695961</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>489.788707</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>2.83638622387687</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>565.158563</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>2.760188482093777</v>
+      </c>
+      <c r="I39" s="8" t="n">
+        <v>335.338516</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>3.018948222395241</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>2.177206823078781</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS CHEMICAL PRODUCTS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>180.961801</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>0.9748371022419209</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>208.566407</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>1.207816503573032</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>416.685235</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>2.035056816976051</v>
+      </c>
+      <c r="I40" s="8" t="n">
+        <v>310.614061</v>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>2.796361654164764</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>59.23948542136483</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>9958.652137999999</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>53.64703235045295</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>7674.212981</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>44.44167794666087</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>7763.324702</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>37.91544679331791</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>3971.292805</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>35.75231231197362</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-12.25268178395647</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1726,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>759888.707895</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>39.476673697572</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>857349.411262</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>41.04977509251457</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>996094.005217</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>43.94220478500587</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>527862.6484759999</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>44.59141971411192</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-5.588381961534006</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>306074.964267</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>15.90077779262638</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>302813.675236</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>14.49867825193723</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>275288.735531</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>12.14422928795082</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>128353.659747</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>10.84272950576274</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-6.882569657112169</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>112429.962941</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>5.840803942391594</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>125538.88569</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>6.01078504894963</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>134948.645824</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>5.953194175649709</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>67694.34814099999</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>5.718508591095714</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-10.08457702026911</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>98209.39926000001</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>5.102037138255914</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>107835.701628</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>5.163158964857749</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>111818.964193</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>4.932839468645953</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>53905.929411</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>4.5537261073218</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-12.06976736777307</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>51673.102737</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>2.684448649513991</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>56240.583183</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>2.692791597460485</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>73434.426802</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>3.239524185370467</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>35788.345972</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>3.023235610094235</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-8.606652375248148</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>55817.295501</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>2.89974194678835</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>61854.297109</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>2.961575469087354</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>71725.19821</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>3.16412239355094</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>34788.074584</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.938737262997503</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-10.2575398815794</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>36389.549677</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1.890458910200063</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>39353.346935</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.884232985524007</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>40303.384485</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.777964293824738</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>19714.46119</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.665387418296996</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-15.12679744074856</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>28786.060594</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1.495453096356442</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>30159.257271</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.44402120263835</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>34216.473414</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.509443158882527</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>17901.411093</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.512229247186667</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-7.955248190453313</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>36282.355482</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.884890107539459</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>33188.316231</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.589052140336129</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>32627.562059</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.43934910372212</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>16381.556277</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.383838871015068</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-14.0112407174969</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>12610.150166</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.6551048570777703</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>13121.997528</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.6282794858353533</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>17900.517233</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.7896726512661359</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>16024.919952</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.353711867145241</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>30.36564384058957</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>426744.064644</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>22.16960986167803</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>461105.084787</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>22.07764976085913</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>478469.639474</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>21.10745649613072</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>265360.922881</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>22.41647580497212</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-4.063764251109303</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2184,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>564528.671958</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>29.45114682951644</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>569040.67833</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>28.02955911955932</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>580805.660258</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>26.56609045451166</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>290563.713206</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>24.93493764163588</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-2.53877992606103</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>276070.546637</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>14.40244686972437</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>329201.996593</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>16.21568927701384</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>363948.52916</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>16.64703050957889</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>217999.447606</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>18.70778209704691</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>4.291176609866976</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>121873.860506</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>6.358091517288339</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>122715.478737</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>6.044665868595473</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>141890.221622</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>6.490068400067452</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>65524.109085</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>5.622999362277161</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-14.48099746671611</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>74389.725009</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>3.880870578723071</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>95923.523584</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>4.724959352896973</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>130929.322635</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>5.988716133937576</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>61930.687167</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>5.314627231233072</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-15.5864450686853</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>102762.388178</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>5.36105663559141</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>108719.503099</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>5.355258166262937</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>113053.470497</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>5.171073439755443</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>56951.216464</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>4.887310309592446</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-10.33124486742551</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>50983.381911</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>2.659774677729538</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>54223.008059</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>2.67089343153898</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>67048.723057</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>3.066813158812064</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>34862.126193</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>2.991718866357554</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-0.5194091416865554</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>50429.461713</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>2.630876969086058</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>51985.445856</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>2.560676562269208</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>52982.659433</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>2.423430450716369</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>27031.804806</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>2.319754107425705</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-10.66782601560177</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>17575.699322</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.9169144581591154</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>24473.216793</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>1.205491106467741</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>38673.617241</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>1.768933886372909</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>24690.863265</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>2.118864496319425</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>12.17765432077242</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>25575.244108</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>1.334246260359069</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>25175.324852</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>1.240075240954954</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>35490.669032</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>1.623345618526556</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>18494.48358</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.587117640028961</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>7.373340921261295</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>871</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>25857.913771</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>1.348992979459073</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>28627.257395</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.410109038142715</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>25634.093808</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>1.172505196523496</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>16570.709222</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.422027535954956</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>21.56868885286147</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>606783.969963</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>31.65558222436352</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>620059.514408</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>30.54262283629786</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>635810.001114</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>29.08199275119759</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>350668.346365</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>30.09286071212793</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-1.751398301823281</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
